--- a/biology/Microbiologie/Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain/Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain.xlsx
+++ b/biology/Microbiologie/Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain/Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_impliqu%C3%A9es_dans_les_maladies_chez_l%27humain</t>
+          <t>Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente une liste de bactéries qui sont les agents étiologiques d'infections bactériennes humaines. Le critère de classification principal est la coloration par la méthode de Gram. D'autres critères sont pris en compte à un second niveau de classement : morphologie à type de bacille ou de cocci, métabolisme aérobie ou anaérobie (pris ici au sens d'anaérobie strict) etc.
 Lorsque plusieurs espèces du même genre présentent une pathogénicité chez l'être humain le nom du genre est suivi de l'abréviation « spp.» (lat. species plurimae) et une ou plusieurs espèces pathogènes représentatives sont citées. Lorsqu'une seule espèce pathogène est connue (ou prédomine très largement sur la pathogénicité des autres espèces du même genre) son nom binomial est indiqué in extenso.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_impliqu%C3%A9es_dans_les_maladies_chez_l%27humain</t>
+          <t>Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Bactéries Gram positives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart sont des cocci aérobies bien que certains bacilles et/ou anaérobies Gram positifs jouent un rôle important en pathologie humaine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_impliqu%C3%A9es_dans_les_maladies_chez_l%27humain</t>
+          <t>Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Bactéries Gram négatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart sont des bacilles aérobies bien que certains cocci et/ou anaérobies Gram négatifs jouent un rôle important en pathologie humaine.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_impliqu%C3%A9es_dans_les_maladies_chez_l%27humain</t>
+          <t>Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Bactéries non colorables par la méthode de Gram</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines bactéries pathogènes ne sont pas colorées efficacement par la méthode de Gram et nécessitent le recours à d'autres techniques d'identification. Leur paroi a généralement une structure très différente de celle des bactéries colorables en Gram.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_bact%C3%A9ries_impliqu%C3%A9es_dans_les_maladies_chez_l%27humain</t>
+          <t>Liste_de_bactéries_impliquées_dans_les_maladies_chez_l'humain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Bactéries intracellulaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cette catégorie recoupe la classification par la méthode de Gram. Elle peut avoir un intérêt clinique dans le sens où les bactéries intracellulaires sont souvent sensibles aux mêmes antibiotiques.
 On distingue habituellement des bactéries intracellulaires :
